--- a/excel/output3.xlsx
+++ b/excel/output3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5937" uniqueCount="2238">
   <si>
     <t>Name</t>
   </si>
@@ -6728,6 +6728,12 @@
   </si>
   <si>
     <t>ОС-2-У-0187</t>
+  </si>
+  <si>
+    <t>Партия аппаратуры волоконно-оптического линейного тракта Т-501 (АЛТ-501) в количестве 2000 штук (с №091201 по 093200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- аппаратуру волоконно-оптического линейного тракта ОМС-4, 16, 40 (С, Е, М, Т), партия в количестве 100 экземпляров зав. номера с №10.01.01 по №10.01.100 </t>
   </si>
 </sst>
 </file>
@@ -6769,12 +6775,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7081,10 +7090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B834"/>
+  <dimension ref="A1:I836"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+      <selection activeCell="B835" sqref="B835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13739,7 +13748,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>831</v>
       </c>
@@ -13747,13 +13756,35 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>832</v>
       </c>
       <c r="B834" s="4" t="s">
         <v>2234</v>
       </c>
+    </row>
+    <row r="835" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A835" s="1">
+        <v>833</v>
+      </c>
+      <c r="B835" s="5" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C835" s="3"/>
+      <c r="H835" s="2"/>
+      <c r="I835" s="2"/>
+    </row>
+    <row r="836" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A836" s="1">
+        <v>834</v>
+      </c>
+      <c r="B836" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C836" s="3"/>
+      <c r="H836" s="2"/>
+      <c r="I836" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
